--- a/ImportExportAnomaliesCode/regressionResults.xlsx
+++ b/ImportExportAnomaliesCode/regressionResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elenahorton/Documents/HBS/ESE 168/ESE168_Project/ImportExportAnomaliesCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8820C16C-BFD8-964C-BE1F-9D7E4FCD70DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBC918C-3BD1-6445-92C3-96DB7648F7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="1880" windowWidth="26840" windowHeight="15940" xr2:uid="{7B3BB954-6272-3748-95D4-D5300B6F4F16}"/>
+    <workbookView xWindow="1760" yWindow="1880" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{7B3BB954-6272-3748-95D4-D5300B6F4F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Corn" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Soy!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Wheat!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +35,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -5523,7 +5524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F43831-FFC3-114E-B180-EBE317F8230D}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -14728,7 +14729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFA431C-72BC-964A-BDBA-0753CC1F09A0}">
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
